--- a/Base_Academicos_demo.xlsx
+++ b/Base_Academicos_demo.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Base_Acad" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tesis_postgrado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="publicaciones" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proyectos" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="consultorias" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proyectos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="consultorias" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="publicaciones" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="m_doi">#REF!</definedName>
@@ -63,7 +63,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -72,25 +72,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,27 +183,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -229,6 +205,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -617,95 +595,95 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="19.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="33.81640625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21.26953125" customWidth="1" min="5" max="5"/>
-    <col width="19.26953125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="33.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" min="5" max="5"/>
+    <col width="19.21875" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="17.54296875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="17.5546875" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="10" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.7265625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="15.77734375" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="10" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="16.54296875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="24.54296875" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="16.5546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="24.5546875" bestFit="1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Tipo</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>RUT</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Orcid</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Profesion</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>inst_profesion</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>pais_profesion</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>max_grado</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>ano_max_grado</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>institucion_grado</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>pais_grado</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>linea_invest</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="9" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1">
+    <row r="2" ht="19.05" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Nucleo</t>
@@ -718,12 +696,12 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Investigador X</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5435-2587</t>
+          <t>Paulina Flores</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-1738-7662</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -731,12 +709,12 @@
           <t>profesion x</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>inst x</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>pais x</t>
         </is>
@@ -746,56 +724,55 @@
           <t>Doctorado</t>
         </is>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J2" s="7" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>inst x</t>
         </is>
       </c>
-      <c r="K2" s="7" t="n"/>
-      <c r="L2" s="7" t="n"/>
-      <c r="M2" s="14" t="inlineStr">
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="10" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="10" t="n"/>
-      <c r="F3" s="10" t="n"/>
-      <c r="G3" s="7" t="n"/>
-      <c r="H3" s="10" t="n"/>
-      <c r="I3" s="10" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="n"/>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="11" t="n"/>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="10" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
@@ -805,22 +782,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col width="24.26953125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="38.7265625" customWidth="1" min="6" max="6"/>
-    <col width="46.26953125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="26.81640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="24.21875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="38.77734375" customWidth="1" min="6" max="6"/>
+    <col width="46.21875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="26.77734375" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -865,8 +843,8 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="40" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="40.05" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
@@ -881,32 +859,32 @@
           <t>Guia</t>
         </is>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="6" t="n">
         <v>2012</v>
       </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>Carlos Melo</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Metales pesados en el ambiente marino en Chile: estado del arte, normativa vigente y propuestas de intervención. </t>
         </is>
       </c>
-      <c r="G2" s="13" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>Magister en Desarrollo Regional y Medio Ambiente.</t>
         </is>
       </c>
-      <c r="H2" s="13" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>Facultad de Arquitectura, Universidad de Valparaíso.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="53" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A3" s="14" t="inlineStr">
+    <row r="3" ht="52.95" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
@@ -921,25 +899,25 @@
           <t>Co-Guia</t>
         </is>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="6" t="n">
         <v>2014</v>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>John Deer</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>la mirada al cielo</t>
         </is>
       </c>
-      <c r="G3" s="13" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>Magister en miradas</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>Facultad x Universidad X</t>
         </is>
@@ -958,313 +936,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="B1" s="16" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.3390/ijms231810719</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1186/s40659-019-0261-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s00044-018-2245-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.msec.2017.05.116</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.3390/ma10121404</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1002/term.2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.carbpol.2014.10.027</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s00449-014-1319-x</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s00449-013-0971-x</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s00449-012-0786-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.4067/S0716-97602011000300005</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.2225/vol13-issue5-fulltext-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s10529-010-0245-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1186/1479-5876-8-59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1007/s00449-008-0253-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/j.ygyno.2006.07.007</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.4161/cbt.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1038/sj.leu.2401926</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/S0065-2571(99)00033-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1038/sj.leu.2401792</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1016/S0163-7258(00)00085-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1038/sj.leu.2401493</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>email@mail.net</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>http://dx.doi.org/10.1038/sj.leu.2401215</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1275,16 +947,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col width="23.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="25.54296875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="22.453125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="23.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="25.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -1294,34 +966,34 @@
           <t>tipo</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>titulo</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>financiamiento</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>anno</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>periodo</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>rol</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
@@ -1366,9 +1038,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -1376,17 +1049,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="129.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="129.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="22.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="82.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="27.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16.453125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16.90625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="85.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="22.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="82.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="27.21875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="16.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="16.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="85.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
@@ -1395,57 +1068,57 @@
           <t>email</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>titulo</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>institucion</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>anno</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>periodos</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>objetivo</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A2" s="14" t="inlineStr">
+    <row r="2" ht="15.45" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>email@mail.net</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Miembro del Comité de X</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Institucion x</t>
         </is>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>2013 a la fecha</t>
         </is>
       </c>
-      <c r="F2" s="9" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Solucionar lo de los formatos CNA</t>
         </is>
@@ -1457,4 +1130,107 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>doi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1093/mnras/stac1617</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1093/mnras/stac092</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.5281/zenodo.4659014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1093/mnras/staa588</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1051/0004-6361/201936039</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>email@mail.net</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.1051/0004-6361/201834266</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>